--- a/RPAFramework/RoboticEnterpriseFramework/Data/Config.xlsx
+++ b/RPAFramework/RoboticEnterpriseFramework/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\RPA\RPAFramework\RoboticEnterpriseFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\RPA\RPAProiect\YoutubePlaylistCreator\RPAFramework\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73CD15C-F6B2-4F4F-B263-88AF99AF04B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643BE8A-14BE-4395-AC03-8A20005FB857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>www.youtube.com</t>
+  </si>
+  <si>
+    <t>RetryNumberYoutubeDown</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -591,7 +594,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/RPAFramework/RoboticEnterpriseFramework/Data/Config.xlsx
+++ b/RPAFramework/RoboticEnterpriseFramework/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\Desktop\RPA\RPAProiect\YoutubePlaylistCreator\RPAFramework\RoboticEnterpriseFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1643BE8A-14BE-4395-AC03-8A20005FB857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8099C3A-190B-4939-BEE1-6544A929D4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -131,6 +131,39 @@
   </si>
   <si>
     <t>RetryNumberYoutubeDown</t>
+  </si>
+  <si>
+    <t>LoginDelay</t>
+  </si>
+  <si>
+    <t>NullPlaylistOrSongNameBE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomplete data: song name:, playlist name: </t>
+  </si>
+  <si>
+    <t>IncorrectEmailBE</t>
+  </si>
+  <si>
+    <t>IncorrectPasswordBE</t>
+  </si>
+  <si>
+    <t>Incorrect email!</t>
+  </si>
+  <si>
+    <t>Incorrect password!</t>
+  </si>
+  <si>
+    <t>YoutubeBotCredentials</t>
+  </si>
+  <si>
+    <t>botCredentials</t>
+  </si>
+  <si>
+    <t>YoutubeIsDownSE</t>
+  </si>
+  <si>
+    <t>Youtube is down!</t>
   </si>
 </sst>
 </file>
@@ -189,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -200,6 +233,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -518,7 +552,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -602,12 +636,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1.1574074074074073E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
